--- a/Peáas para site.xlsx
+++ b/Peáas para site.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardo/Projects/aliance/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19640"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19560"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -384,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -396,15 +396,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -452,6 +443,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,17 +521,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,7 +813,7 @@
   <dimension ref="A1:E153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:E98"/>
+      <selection activeCell="D46" sqref="D46:D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -829,19 +826,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="11" t="s">
         <v>9</v>
       </c>
     </row>
@@ -856,7 +853,7 @@
       <c r="C3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="29" t="s">
@@ -867,7 +864,7 @@
       <c r="A4" s="25"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="31"/>
@@ -883,7 +880,7 @@
       <c r="C7" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="E7" s="29" t="s">
@@ -894,7 +891,7 @@
       <c r="A8" s="24"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="14" t="s">
         <v>13</v>
       </c>
       <c r="E8" s="30"/>
@@ -903,7 +900,7 @@
       <c r="A9" s="24"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="30"/>
@@ -912,7 +909,7 @@
       <c r="A10" s="24"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="30"/>
@@ -921,7 +918,7 @@
       <c r="A11" s="24"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="30"/>
@@ -930,7 +927,7 @@
       <c r="A12" s="24"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="14" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="30"/>
@@ -939,7 +936,7 @@
       <c r="A13" s="24"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="30"/>
@@ -948,7 +945,7 @@
       <c r="A14" s="24"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="30"/>
@@ -957,7 +954,7 @@
       <c r="A15" s="24"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="14" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="30"/>
@@ -966,7 +963,7 @@
       <c r="A16" s="24"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="30"/>
@@ -975,7 +972,7 @@
       <c r="A17" s="24"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="14" t="s">
         <v>20</v>
       </c>
       <c r="E17" s="30"/>
@@ -984,7 +981,7 @@
       <c r="A18" s="25"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>21</v>
       </c>
       <c r="E18" s="31"/>
@@ -1000,7 +997,7 @@
       <c r="C21" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="12" t="s">
         <v>24</v>
       </c>
       <c r="E21" s="29" t="s">
@@ -1011,7 +1008,7 @@
       <c r="A22" s="24"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="30"/>
@@ -1020,7 +1017,7 @@
       <c r="A23" s="24"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
-      <c r="D23" s="17" t="s">
+      <c r="D23" s="14" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="30"/>
@@ -1029,7 +1026,7 @@
       <c r="A24" s="24"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="14" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="30"/>
@@ -1038,7 +1035,7 @@
       <c r="A25" s="24"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="14" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="30"/>
@@ -1047,7 +1044,7 @@
       <c r="A26" s="24"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
-      <c r="D26" s="17" t="s">
+      <c r="D26" s="14" t="s">
         <v>29</v>
       </c>
       <c r="E26" s="30"/>
@@ -1056,7 +1053,7 @@
       <c r="A27" s="24"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="30"/>
@@ -1065,7 +1062,7 @@
       <c r="A28" s="24"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E28" s="30"/>
@@ -1074,7 +1071,7 @@
       <c r="A29" s="25"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
-      <c r="D29" s="16" t="s">
+      <c r="D29" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="31"/>
@@ -1095,7 +1092,7 @@
       <c r="C32" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E32" s="29" t="s">
@@ -1106,7 +1103,7 @@
       <c r="A33" s="24"/>
       <c r="B33" s="27"/>
       <c r="C33" s="27"/>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E33" s="30"/>
@@ -1115,7 +1112,7 @@
       <c r="A34" s="24"/>
       <c r="B34" s="27"/>
       <c r="C34" s="27"/>
-      <c r="D34" s="17" t="s">
+      <c r="D34" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E34" s="30"/>
@@ -1124,7 +1121,7 @@
       <c r="A35" s="25"/>
       <c r="B35" s="28"/>
       <c r="C35" s="28"/>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="31"/>
@@ -1140,7 +1137,7 @@
       <c r="C37" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E37" s="29" t="s">
@@ -1151,7 +1148,7 @@
       <c r="A38" s="25"/>
       <c r="B38" s="28"/>
       <c r="C38" s="28"/>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="31"/>
@@ -1167,7 +1164,7 @@
       <c r="C40" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="29" t="s">
@@ -1178,7 +1175,7 @@
       <c r="A41" s="25"/>
       <c r="B41" s="28"/>
       <c r="C41" s="28"/>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="31"/>
@@ -1194,7 +1191,7 @@
       <c r="C43" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="29" t="s">
@@ -1205,7 +1202,7 @@
       <c r="A44" s="25"/>
       <c r="B44" s="28"/>
       <c r="C44" s="28"/>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="16" t="s">
         <v>37</v>
       </c>
       <c r="E44" s="31"/>
@@ -1221,7 +1218,7 @@
       <c r="C46" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="15" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="29" t="s">
@@ -1232,7 +1229,7 @@
       <c r="A47" s="25"/>
       <c r="B47" s="28"/>
       <c r="C47" s="28"/>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>41</v>
       </c>
       <c r="E47" s="31"/>
@@ -1248,7 +1245,7 @@
       <c r="C50" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E50" s="36" t="s">
@@ -1259,47 +1256,47 @@
       <c r="A51" s="33"/>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="5" t="s">
         <v>37</v>
       </c>
       <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="8" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="37"/>
+      <c r="E54" s="31"/>
     </row>
     <row r="56" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B57" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="4" t="s">
         <v>51</v>
       </c>
       <c r="D57" s="39" t="s">
@@ -1310,33 +1307,33 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="7" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="38"/>
-      <c r="C58" s="11" t="s">
+      <c r="C58" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="40"/>
       <c r="E58" s="42"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>49</v>
       </c>
       <c r="B59" s="38"/>
-      <c r="C59" s="11" t="s">
+      <c r="C59" s="8" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="40"/>
       <c r="E59" s="42"/>
     </row>
     <row r="60" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B60" s="35"/>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="D60" s="41"/>
@@ -1383,7 +1380,7 @@
     </row>
     <row r="66" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="20"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="26" t="s">
         <v>54</v>
       </c>
@@ -1398,7 +1395,7 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B68" s="27"/>
@@ -1407,7 +1404,7 @@
       <c r="E68" s="30"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B69" s="27"/>
@@ -1416,7 +1413,7 @@
       <c r="E69" s="30"/>
     </row>
     <row r="70" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="22"/>
+      <c r="A70" s="19"/>
       <c r="B70" s="28"/>
       <c r="C70" s="28"/>
       <c r="D70" s="45"/>
@@ -1433,7 +1430,7 @@
       <c r="C73" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D73" s="15" t="s">
+      <c r="D73" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E73" s="29" t="s">
@@ -1444,7 +1441,7 @@
       <c r="A74" s="24"/>
       <c r="B74" s="27"/>
       <c r="C74" s="27"/>
-      <c r="D74" s="17" t="s">
+      <c r="D74" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E74" s="30"/>
@@ -1453,7 +1450,7 @@
       <c r="A75" s="25"/>
       <c r="B75" s="28"/>
       <c r="C75" s="28"/>
-      <c r="D75" s="16" t="s">
+      <c r="D75" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E75" s="31"/>
@@ -1469,7 +1466,7 @@
       <c r="C78" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D78" s="15" t="s">
+      <c r="D78" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E78" s="29" t="s">
@@ -1480,7 +1477,7 @@
       <c r="A79" s="24"/>
       <c r="B79" s="27"/>
       <c r="C79" s="27"/>
-      <c r="D79" s="17" t="s">
+      <c r="D79" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E79" s="30"/>
@@ -1489,7 +1486,7 @@
       <c r="A80" s="24"/>
       <c r="B80" s="27"/>
       <c r="C80" s="27"/>
-      <c r="D80" s="17" t="s">
+      <c r="D80" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E80" s="30"/>
@@ -1498,7 +1495,7 @@
       <c r="A81" s="24"/>
       <c r="B81" s="27"/>
       <c r="C81" s="27"/>
-      <c r="D81" s="17" t="s">
+      <c r="D81" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E81" s="30"/>
@@ -1507,7 +1504,7 @@
       <c r="A82" s="24"/>
       <c r="B82" s="27"/>
       <c r="C82" s="27"/>
-      <c r="D82" s="17" t="s">
+      <c r="D82" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E82" s="30"/>
@@ -1516,7 +1513,7 @@
       <c r="A83" s="24"/>
       <c r="B83" s="27"/>
       <c r="C83" s="27"/>
-      <c r="D83" s="17" t="s">
+      <c r="D83" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E83" s="30"/>
@@ -1525,7 +1522,7 @@
       <c r="A84" s="25"/>
       <c r="B84" s="28"/>
       <c r="C84" s="28"/>
-      <c r="D84" s="16" t="s">
+      <c r="D84" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E84" s="31"/>
@@ -1541,7 +1538,7 @@
       <c r="C87" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D87" s="15" t="s">
+      <c r="D87" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="29" t="s">
@@ -1552,7 +1549,7 @@
       <c r="A88" s="24"/>
       <c r="B88" s="27"/>
       <c r="C88" s="27"/>
-      <c r="D88" s="17" t="s">
+      <c r="D88" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E88" s="30"/>
@@ -1561,7 +1558,7 @@
       <c r="A89" s="25"/>
       <c r="B89" s="28"/>
       <c r="C89" s="28"/>
-      <c r="D89" s="16" t="s">
+      <c r="D89" s="13" t="s">
         <v>31</v>
       </c>
       <c r="E89" s="31"/>
@@ -1577,7 +1574,7 @@
       <c r="C92" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="12" t="s">
         <v>21</v>
       </c>
       <c r="E92" s="29" t="s">
@@ -1588,7 +1585,7 @@
       <c r="A93" s="24"/>
       <c r="B93" s="27"/>
       <c r="C93" s="27"/>
-      <c r="D93" s="17" t="s">
+      <c r="D93" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E93" s="30"/>
@@ -1597,7 +1594,7 @@
       <c r="A94" s="24"/>
       <c r="B94" s="27"/>
       <c r="C94" s="27"/>
-      <c r="D94" s="17" t="s">
+      <c r="D94" s="14" t="s">
         <v>31</v>
       </c>
       <c r="E94" s="30"/>
@@ -1606,7 +1603,7 @@
       <c r="A95" s="24"/>
       <c r="B95" s="27"/>
       <c r="C95" s="27"/>
-      <c r="D95" s="17" t="s">
+      <c r="D95" s="14" t="s">
         <v>32</v>
       </c>
       <c r="E95" s="30"/>
@@ -1615,7 +1612,7 @@
       <c r="A96" s="24"/>
       <c r="B96" s="27"/>
       <c r="C96" s="27"/>
-      <c r="D96" s="17" t="s">
+      <c r="D96" s="14" t="s">
         <v>60</v>
       </c>
       <c r="E96" s="30"/>
@@ -1624,7 +1621,7 @@
       <c r="A97" s="24"/>
       <c r="B97" s="27"/>
       <c r="C97" s="27"/>
-      <c r="D97" s="17" t="s">
+      <c r="D97" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E97" s="30"/>
@@ -1633,7 +1630,7 @@
       <c r="A98" s="25"/>
       <c r="B98" s="28"/>
       <c r="C98" s="28"/>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="13" t="s">
         <v>62</v>
       </c>
       <c r="E98" s="31"/>
@@ -1643,414 +1640,414 @@
       <c r="A101" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="B101" s="34" t="s">
+      <c r="B101" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="34" t="s">
+      <c r="C101" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="D101" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="36" t="s">
+      <c r="E101" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="47"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="6" t="s">
+      <c r="B102" s="27"/>
+      <c r="C102" s="27"/>
+      <c r="D102" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E102" s="42"/>
+      <c r="E102" s="30"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="47"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="6" t="s">
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
+      <c r="D103" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E103" s="42"/>
+      <c r="E103" s="30"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="47"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="6" t="s">
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E104" s="42"/>
+      <c r="E104" s="30"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="47"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="6" t="s">
+      <c r="B105" s="27"/>
+      <c r="C105" s="27"/>
+      <c r="D105" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E105" s="42"/>
+      <c r="E105" s="30"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="47"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="6" t="s">
+      <c r="B106" s="27"/>
+      <c r="C106" s="27"/>
+      <c r="D106" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E106" s="42"/>
+      <c r="E106" s="30"/>
     </row>
     <row r="107" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A107" s="48"/>
-      <c r="B107" s="35"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="5" t="s">
+      <c r="B107" s="28"/>
+      <c r="C107" s="28"/>
+      <c r="D107" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E107" s="37"/>
+      <c r="E107" s="31"/>
     </row>
     <row r="109" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="32" t="s">
+      <c r="A110" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="B110" s="34" t="s">
+      <c r="B110" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C110" s="34" t="s">
+      <c r="C110" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D110" s="4" t="s">
+      <c r="D110" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="36" t="s">
+      <c r="E110" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="49"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="6" t="s">
+      <c r="A111" s="24"/>
+      <c r="B111" s="27"/>
+      <c r="C111" s="27"/>
+      <c r="D111" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E111" s="42"/>
+      <c r="E111" s="30"/>
     </row>
     <row r="112" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33"/>
-      <c r="B112" s="35"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="5" t="s">
+      <c r="A112" s="25"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28"/>
+      <c r="D112" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E112" s="37"/>
+      <c r="E112" s="31"/>
     </row>
     <row r="114" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="32" t="s">
+      <c r="A115" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B115" s="34" t="s">
+      <c r="B115" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="34" t="s">
+      <c r="C115" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D115" s="4" t="s">
+      <c r="D115" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E115" s="36" t="s">
+      <c r="E115" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="49"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="6" t="s">
+      <c r="A116" s="24"/>
+      <c r="B116" s="27"/>
+      <c r="C116" s="27"/>
+      <c r="D116" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E116" s="42"/>
+      <c r="E116" s="30"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="49"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="38"/>
-      <c r="D117" s="6" t="s">
+      <c r="A117" s="24"/>
+      <c r="B117" s="27"/>
+      <c r="C117" s="27"/>
+      <c r="D117" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E117" s="42"/>
+      <c r="E117" s="30"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="49"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="38"/>
-      <c r="D118" s="6" t="s">
+      <c r="A118" s="24"/>
+      <c r="B118" s="27"/>
+      <c r="C118" s="27"/>
+      <c r="D118" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E118" s="42"/>
+      <c r="E118" s="30"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="49"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="6" t="s">
+      <c r="A119" s="24"/>
+      <c r="B119" s="27"/>
+      <c r="C119" s="27"/>
+      <c r="D119" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E119" s="42"/>
+      <c r="E119" s="30"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="49"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="6" t="s">
+      <c r="A120" s="24"/>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E120" s="42"/>
+      <c r="E120" s="30"/>
     </row>
     <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
-      <c r="B121" s="35"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="5" t="s">
+      <c r="A121" s="25"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="28"/>
+      <c r="D121" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E121" s="37"/>
+      <c r="E121" s="31"/>
     </row>
     <row r="123" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="32" t="s">
+      <c r="A124" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B124" s="34" t="s">
+      <c r="B124" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C124" s="34" t="s">
+      <c r="C124" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="D124" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E124" s="36" t="s">
+      <c r="E124" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="49"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="6" t="s">
+      <c r="A125" s="24"/>
+      <c r="B125" s="27"/>
+      <c r="C125" s="27"/>
+      <c r="D125" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="42"/>
+      <c r="E125" s="30"/>
     </row>
     <row r="126" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="33"/>
-      <c r="B126" s="35"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="5" t="s">
+      <c r="A126" s="25"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="28"/>
+      <c r="D126" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E126" s="37"/>
+      <c r="E126" s="31"/>
     </row>
     <row r="128" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B129" s="34" t="s">
+      <c r="B129" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C129" s="34" t="s">
+      <c r="C129" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D129" s="4" t="s">
+      <c r="D129" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E129" s="36" t="s">
+      <c r="E129" s="29" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="49"/>
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="6" t="s">
+      <c r="A130" s="24"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E130" s="42"/>
+      <c r="E130" s="30"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="49"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="6" t="s">
+      <c r="A131" s="24"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E131" s="42"/>
+      <c r="E131" s="30"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="49"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="38"/>
-      <c r="D132" s="6" t="s">
+      <c r="A132" s="24"/>
+      <c r="B132" s="27"/>
+      <c r="C132" s="27"/>
+      <c r="D132" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E132" s="42"/>
+      <c r="E132" s="30"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="49"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="38"/>
-      <c r="D133" s="6" t="s">
+      <c r="A133" s="24"/>
+      <c r="B133" s="27"/>
+      <c r="C133" s="27"/>
+      <c r="D133" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E133" s="42"/>
+      <c r="E133" s="30"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="49"/>
-      <c r="B134" s="38"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="6" t="s">
+      <c r="A134" s="24"/>
+      <c r="B134" s="27"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="E134" s="42"/>
+      <c r="E134" s="30"/>
     </row>
     <row r="135" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="33"/>
-      <c r="B135" s="35"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="5" t="s">
+      <c r="A135" s="25"/>
+      <c r="B135" s="28"/>
+      <c r="C135" s="28"/>
+      <c r="D135" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="E135" s="37"/>
+      <c r="E135" s="31"/>
     </row>
     <row r="137" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="32" t="s">
+      <c r="A138" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="B138" s="34" t="s">
+      <c r="B138" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C138" s="34" t="s">
+      <c r="C138" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D138" s="4" t="s">
+      <c r="D138" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E138" s="36" t="s">
+      <c r="E138" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="33"/>
-      <c r="B139" s="35"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="5" t="s">
+      <c r="A139" s="25"/>
+      <c r="B139" s="28"/>
+      <c r="C139" s="28"/>
+      <c r="D139" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E139" s="37"/>
+      <c r="E139" s="31"/>
     </row>
     <row r="141" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="32" t="s">
+      <c r="A142" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B142" s="34" t="s">
+      <c r="B142" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C142" s="34" t="s">
+      <c r="C142" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D142" s="4" t="s">
+      <c r="D142" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E142" s="36" t="s">
+      <c r="E142" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="49"/>
-      <c r="B143" s="38"/>
-      <c r="C143" s="38"/>
-      <c r="D143" s="6" t="s">
+      <c r="A143" s="24"/>
+      <c r="B143" s="27"/>
+      <c r="C143" s="27"/>
+      <c r="D143" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E143" s="42"/>
+      <c r="E143" s="30"/>
     </row>
     <row r="144" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="33"/>
-      <c r="B144" s="35"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="5" t="s">
+      <c r="A144" s="25"/>
+      <c r="B144" s="28"/>
+      <c r="C144" s="28"/>
+      <c r="D144" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E144" s="37"/>
+      <c r="E144" s="31"/>
     </row>
     <row r="146" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="32" t="s">
+      <c r="A147" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B147" s="34" t="s">
+      <c r="B147" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C147" s="34" t="s">
+      <c r="C147" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E147" s="36" t="s">
+      <c r="E147" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="33"/>
-      <c r="B148" s="35"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="5" t="s">
+      <c r="A148" s="25"/>
+      <c r="B148" s="28"/>
+      <c r="C148" s="28"/>
+      <c r="D148" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E148" s="37"/>
+      <c r="E148" s="31"/>
     </row>
     <row r="150" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="32" t="s">
+      <c r="A151" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B151" s="34" t="s">
+      <c r="B151" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="C151" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D151" s="7" t="s">
+      <c r="D151" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E151" s="36" t="s">
+      <c r="E151" s="29" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="49"/>
-      <c r="B152" s="38"/>
-      <c r="C152" s="38"/>
-      <c r="D152" s="11" t="s">
+      <c r="A152" s="24"/>
+      <c r="B152" s="27"/>
+      <c r="C152" s="27"/>
+      <c r="D152" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E152" s="42"/>
+      <c r="E152" s="30"/>
     </row>
     <row r="153" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="33"/>
-      <c r="B153" s="35"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="8" t="s">
+      <c r="A153" s="25"/>
+      <c r="B153" s="28"/>
+      <c r="C153" s="28"/>
+      <c r="D153" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="E153" s="37"/>
+      <c r="E153" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="104">
